--- a/Materialliste.xlsx
+++ b/Materialliste.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD437DC-29EB-4FB9-943B-177B91AD9758}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447E1359-DB19-495E-91B2-3993AC9E94CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="205">
   <si>
     <t>Kostenvoranschlag - MINT CNC-Fräse</t>
   </si>
@@ -622,6 +622,24 @@
   </si>
   <si>
     <t>https://www.ebay.de/itm/Messung-Tool-Analog-Panel-Voltmeter-DC-0-10V-Messbereich/352027038145?epid=1743592569&amp;hash=item51f67251c1:g:4YMAAOSw4QdaUMMP</t>
+  </si>
+  <si>
+    <t>M12 Gewindestange</t>
+  </si>
+  <si>
+    <t>M12 1m</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/Gewindestange-A2-V2A-Niro-Edelstahl-DIN-975-976-Gewindestangen-1000-mm-1m-Meter-/271358495006?var=&amp;hash=item3f2e3a091e:m:mywm3Vn9Ce40FjrElud3qbw</t>
+  </si>
+  <si>
+    <t>Verstärkung der Z-Achse</t>
+  </si>
+  <si>
+    <t>M12 Stopmuttern</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/Stopmutter-Sicherungsmuttern-DIN985-Edelstahl-VA-M2-M3-M4-M5-M6-M8-M12-Polystop/301329119935?epid=11029146985&amp;hash=item46289d7abf:m:mwdeZqra2fNfOcTC50amyKA</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,7 +2746,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -2746,31 +2764,75 @@
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E115" s="16">
-        <f>SUM(E88:E113)</f>
-        <v>992.68999999999983</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D117" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E117" s="14">
-        <f>E30+E40+E51+E62+E73+E83+E115</f>
-        <v>2308.3499999999995</v>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" t="s">
+        <v>200</v>
+      </c>
+      <c r="D114" s="15">
+        <v>3.13</v>
+      </c>
+      <c r="E114" s="3">
+        <f>A114*D114</f>
+        <v>9.39</v>
+      </c>
+      <c r="F114" t="s">
+        <v>201</v>
+      </c>
+      <c r="G114" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" t="s">
+        <v>200</v>
+      </c>
+      <c r="D115" s="15">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="E115" s="15">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F115" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E117" s="16">
+        <f>SUM(E88:E115)</f>
+        <v>1011.5299999999999</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D119" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E119" s="14">
+        <f>E30+E40+E51+E62+E73+E83+E117</f>
+        <v>2327.1899999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D120" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
         <v>165</v>
       </c>
     </row>
